--- a/data/LanguageFamily.xlsx
+++ b/data/LanguageFamily.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/psav050/Documents/GitHub/manyvoices3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FC9FA2-445E-1C43-962D-0B1B3D88D86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFB03B3-4457-3D46-BDD8-D5997DE4E91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="760" windowWidth="28000" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Atlantic-Congo</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Greek</t>
   </si>
   <si>
-    <t>Hindi</t>
-  </si>
-  <si>
     <t>IsiZulu (Zulu)</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>English [Gold Coast]</t>
   </si>
   <si>
-    <t>Indic</t>
-  </si>
-  <si>
     <t>Italian (Rome)</t>
   </si>
   <si>
@@ -166,6 +160,9 @@
   </si>
   <si>
     <t>Luo (dholuo)</t>
+  </si>
+  <si>
+    <t>Mandarin Chinese [Reading]</t>
   </si>
 </sst>
 </file>
@@ -632,7 +629,7 @@
   <dimension ref="A1:AR46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -702,21 +699,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9">
         <v>10</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="19"/>
@@ -737,10 +734,10 @@
         <v>18</v>
       </c>
       <c r="G5" s="16">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="19"/>
@@ -750,17 +747,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="9">
+      <c r="D6" s="12">
         <v>12</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>35</v>
+      <c r="E6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>3</v>
@@ -769,7 +766,7 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:44" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -777,25 +774,25 @@
         <v>17</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>13</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>13</v>
+      <c r="E7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="G7" s="30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:44" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>11</v>
       </c>
@@ -805,17 +802,17 @@
         <v>14</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
+        <v>35</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="30">
+        <v>24</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
@@ -824,24 +821,22 @@
         <v>4</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9">
         <v>15</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="29">
-        <v>25</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="G9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
@@ -854,16 +849,20 @@
       <c r="D10" s="9">
         <v>16</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="29">
         <v>25</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
+      <c r="H10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
@@ -880,20 +879,16 @@
       <c r="D11" s="9">
         <v>17</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="34">
-        <v>26</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="E11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
@@ -902,16 +897,24 @@
         <v>6</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="9">
         <v>18</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>38</v>
+      <c r="E12" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F12" s="10"/>
+      <c r="G12" s="34">
+        <v>26</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
@@ -920,14 +923,14 @@
         <v>7</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9">
         <v>19</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F13" s="10"/>
       <c r="AB13" s="3"/>
@@ -939,16 +942,14 @@
         <v>8</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="9">
-        <v>20</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="10"/>
+      <c r="D14" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
@@ -958,25 +959,20 @@
         <v>9</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="D15" s="14">
+        <v>20</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="15"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
     </row>
     <row r="16" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="14">
-        <v>21</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="15"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
     </row>
@@ -1028,15 +1024,15 @@
     <row r="46" spans="11:11" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D14:F14"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G10:J10"/>
     <mergeCell ref="A5:C5"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G11:J11"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
